--- a/hardware/boards/axis_portal_v2/docs/Documentation_AP2.xlsx
+++ b/hardware/boards/axis_portal_v2/docs/Documentation_AP2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Documents\Basurero\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\josep\goldi2\hardware\boards\axis_portal_v2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FC6A02-F256-4A63-B873-18B374724AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BB2F7F-FD13-44E3-B369-3506D3D3CEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{28F95597-DC2D-43B8-80C7-4C3F5FC79DF3}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="Registers" sheetId="3" r:id="rId4"/>
     <sheet name="Error List" sheetId="4" r:id="rId5"/>
     <sheet name="Stepper Motors" sheetId="5" r:id="rId6"/>
-    <sheet name="Model Map" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="305">
   <si>
     <t>SPI Communication Protocol</t>
   </si>
@@ -641,9 +640,6 @@
     <t>0x00</t>
   </si>
   <si>
-    <t>ENC_rst</t>
-  </si>
-  <si>
     <t>Error list 1</t>
   </si>
   <si>
@@ -953,92 +949,21 @@
     <t>The GOLDI Axis Portal V2 is operated by writing the corresponding values into the FPGA registers (See Register Table)</t>
   </si>
   <si>
-    <t>Physical model reference map</t>
-  </si>
-  <si>
-    <t>Crane</t>
-  </si>
-  <si>
-    <t>Status LEDS</t>
-  </si>
-  <si>
-    <t>Model Connectors</t>
-  </si>
-  <si>
-    <t>Y-Axis</t>
-  </si>
-  <si>
-    <t>X-Axis</t>
-  </si>
-  <si>
-    <t>Z-Axis</t>
-  </si>
-  <si>
-    <t>Actuation Map</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>x_neg | left</t>
-  </si>
-  <si>
-    <t>x_pos | right</t>
-  </si>
-  <si>
-    <t>z_neg | bottom</t>
-  </si>
-  <si>
-    <t>z_pos | top</t>
-  </si>
-  <si>
-    <t>X Motor -&gt; Dir0</t>
-  </si>
-  <si>
-    <t>X Motor -&gt; Dir1</t>
-  </si>
-  <si>
-    <t>Y Motor -&gt; Dir0</t>
-  </si>
-  <si>
-    <t>Y Motor -&gt; Dir1</t>
-  </si>
-  <si>
-    <t>y_neg | back</t>
-  </si>
-  <si>
-    <t>y_pos | front</t>
-  </si>
-  <si>
-    <t>Z Motor -&gt; Out2</t>
-  </si>
-  <si>
-    <t>Z Motor -&gt; Out1</t>
-  </si>
-  <si>
     <t>The Axis Portal V2 hardware provides the TMC2660 with an initial configuration when the module is started. 5 SPI 24-bit transactions are performed automatically after initialization to write the data to the 5 registers of the TMC2660 and activate the TMC2660. The default values for the initial configuration are located in the GOLDI_MODULE_CONFIG module in the TMC2660_rom structure. Once the hardware is started a FIFO structure loads the data into the SPI transmitter until the module has been programmed. After this initial configuration, the module can be operated through the STEP/DIRECTION interface.</t>
   </si>
   <si>
     <t xml:space="preserve">The GOLDI Axis Portal V2 does not have an initialization or calibration process needed to operate correctly. The system can be used directly after initialization. However, it is recommended to drive the crane to the utmost left and back position and reset the encoders using the control register to get a reproducible encoder position value. </t>
+  </si>
+  <si>
+    <t>enc_rst</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1111,51 +1036,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="61">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1834,396 +1723,281 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2239,179 +2013,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9D93124-2261-44B1-87F4-FC14ADFFC9F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1280160" y="4244340"/>
-          <a:ext cx="670560" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F1D15C-82CE-4F5E-B279-219E7CBDE5F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="967740" y="3931920"/>
-          <a:ext cx="640080" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D980D413-E6CA-4C0D-8D1D-9AC3E646A7EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="876300" y="4236720"/>
-          <a:ext cx="411480" cy="243840"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2716,349 +2317,355 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
-        <v>298</v>
-      </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
+      <c r="A2" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67">
+        <v>1</v>
+      </c>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70">
-        <v>1</v>
-      </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="69" t="s">
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="73" t="s">
-        <v>297</v>
-      </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="73" t="s">
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="60" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="71" t="s">
-        <v>326</v>
-      </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="73" t="s">
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="71" t="s">
-        <v>302</v>
-      </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="71"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="71"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="71"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="A22:J27"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A8:J8"/>
@@ -3066,12 +2673,6 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A15:J20"/>
     <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
@@ -3104,18 +2705,18 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -3130,146 +2731,146 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="75"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70" t="s">
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70" t="s">
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="78"/>
@@ -3284,68 +2885,68 @@
       <c r="J14" s="78"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="75"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="75"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="75"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
@@ -3360,66 +2961,66 @@
       <c r="J20" s="78"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="75"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="75"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="75"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="75"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="78"/>
@@ -3434,150 +3035,150 @@
       <c r="J26" s="78"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="75"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="75"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="75"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="75"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="75"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="69" t="s">
+      <c r="A35" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="76" t="s">
+      <c r="A36" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="77">
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="85">
         <v>15</v>
       </c>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="76" t="s">
+      <c r="A37" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="77">
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="85">
         <v>8</v>
       </c>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="78"/>
@@ -3643,55 +3244,55 @@
       <c r="A42" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="84" t="s">
+      <c r="B42" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="86" t="s">
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>0</v>
       </c>
-      <c r="B43" s="87" t="s">
+      <c r="B43" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="89" t="s">
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>1</v>
       </c>
-      <c r="B44" s="91" t="s">
+      <c r="B44" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="91"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="93" t="s">
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="91"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="91"/>
-      <c r="J44" s="91"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
     </row>
     <row r="45" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
@@ -3719,18 +3320,18 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:J13"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="E37:J37"/>
     <mergeCell ref="A14:J14"/>
@@ -3744,18 +3345,18 @@
     <mergeCell ref="A35:J35"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="E36:J36"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:J44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
@@ -3784,52 +3385,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
     </row>
     <row r="2" spans="1:6" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="97"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="91"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="95" t="s">
+      <c r="B5" s="91"/>
+      <c r="C5" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="97"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="91"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
@@ -4830,10 +4431,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4859,26 +4460,26 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="98" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="101"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="31">
         <v>1</v>
       </c>
@@ -4893,12 +4494,12 @@
       <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="101"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -4911,12 +4512,12 @@
       <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="101"/>
+      <c r="B5" s="99"/>
       <c r="C5" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
@@ -4943,34 +4544,34 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="100" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
@@ -5044,13 +4645,14 @@
       <c r="H11" s="43"/>
       <c r="I11" s="44"/>
       <c r="J11" s="43"/>
+      <c r="K11" s="45"/>
       <c r="L11" s="45" t="s">
-        <v>199</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B12" s="17">
         <v>2</v>
@@ -5064,30 +4666,30 @@
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G12" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H12" s="48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J12" s="48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K12" s="48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L12" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B13" s="17">
         <v>3</v>
@@ -5100,33 +4702,33 @@
         <v>198</v>
       </c>
       <c r="E13" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="G13" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="H13" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="I13" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="I13" s="48" t="s">
+      <c r="J13" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="J13" s="48" t="s">
+      <c r="K13" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="K13" s="48" t="s">
+      <c r="L13" s="49" t="s">
         <v>207</v>
-      </c>
-      <c r="L13" s="49" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B14" s="17">
         <v>4</v>
@@ -5140,24 +4742,24 @@
       </c>
       <c r="G14" s="48"/>
       <c r="H14" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="I14" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="I14" s="48" t="s">
+      <c r="J14" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="J14" s="48" t="s">
+      <c r="K14" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="K14" s="48" t="s">
+      <c r="L14" s="49" t="s">
         <v>213</v>
-      </c>
-      <c r="L14" s="49" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B15" s="17">
         <v>5</v>
@@ -5172,15 +4774,15 @@
       <c r="E15" s="48"/>
       <c r="F15" s="48"/>
       <c r="K15" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="L15" s="55" t="s">
         <v>216</v>
-      </c>
-      <c r="L15" s="55" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B16" s="17">
         <v>6</v>
@@ -5199,15 +4801,15 @@
       <c r="I16" s="48"/>
       <c r="J16" s="48"/>
       <c r="K16" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="L16" s="49" t="s">
         <v>216</v>
-      </c>
-      <c r="L16" s="49" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B17" s="17">
         <v>7</v>
@@ -5219,20 +4821,20 @@
       <c r="D17" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="E17" s="98" t="s">
-        <v>220</v>
-      </c>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="99"/>
+      <c r="E17" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="93"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B18" s="17">
         <v>8</v>
@@ -5244,20 +4846,20 @@
       <c r="D18" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="E18" s="98" t="s">
-        <v>222</v>
-      </c>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="99"/>
+      <c r="E18" s="92" t="s">
+        <v>221</v>
+      </c>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="93"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="46" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B19" s="17">
         <v>9</v>
@@ -5269,20 +4871,20 @@
       <c r="D19" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="E19" s="98" t="s">
-        <v>223</v>
-      </c>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="99"/>
+      <c r="E19" s="92" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="93"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B20" s="17">
         <v>10</v>
@@ -5294,20 +4896,20 @@
       <c r="D20" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="E20" s="98" t="s">
-        <v>224</v>
-      </c>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="99"/>
+      <c r="E20" s="92" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="93"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B21" s="17">
         <v>11</v>
@@ -5320,25 +4922,25 @@
         <v>198</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F21" s="48"/>
       <c r="G21" s="48"/>
       <c r="H21" s="48"/>
       <c r="I21" s="48"/>
       <c r="J21" s="48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K21" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L21" s="49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B22" s="17">
         <v>12</v>
@@ -5350,20 +4952,20 @@
       <c r="D22" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="E22" s="98" t="s">
-        <v>250</v>
-      </c>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="99"/>
+      <c r="E22" s="92" t="s">
+        <v>249</v>
+      </c>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="93"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B23" s="17">
         <v>13</v>
@@ -5375,20 +4977,20 @@
       <c r="D23" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="E23" s="98" t="s">
-        <v>251</v>
-      </c>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="99"/>
+      <c r="E23" s="92" t="s">
+        <v>250</v>
+      </c>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="93"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B24" s="17">
         <v>14</v>
@@ -5400,20 +5002,20 @@
       <c r="D24" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="E24" s="98" t="s">
-        <v>257</v>
-      </c>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="99"/>
+      <c r="E24" s="92" t="s">
+        <v>256</v>
+      </c>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="93"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B25" s="17">
         <v>15</v>
@@ -5425,20 +5027,20 @@
       <c r="D25" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="E25" s="98" t="s">
-        <v>258</v>
-      </c>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="99"/>
+      <c r="E25" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="93"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B26" s="17">
         <v>16</v>
@@ -5448,22 +5050,22 @@
         <v>0x10</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" s="98" t="s">
-        <v>259</v>
-      </c>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="99"/>
+        <v>225</v>
+      </c>
+      <c r="E26" s="92" t="s">
+        <v>258</v>
+      </c>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="93"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B27" s="17">
         <v>17</v>
@@ -5476,25 +5078,25 @@
         <v>198</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F27" s="48"/>
       <c r="G27" s="48"/>
       <c r="H27" s="48"/>
       <c r="I27" s="48"/>
       <c r="J27" s="48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K27" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L27" s="49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B28" s="17">
         <v>18</v>
@@ -5506,20 +5108,20 @@
       <c r="D28" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="E28" s="98" t="s">
-        <v>250</v>
-      </c>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="99"/>
+      <c r="E28" s="92" t="s">
+        <v>249</v>
+      </c>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="93"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B29" s="17">
         <v>19</v>
@@ -5531,20 +5133,20 @@
       <c r="D29" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="98" t="s">
-        <v>251</v>
-      </c>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="99"/>
+      <c r="E29" s="92" t="s">
+        <v>250</v>
+      </c>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="93"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B30" s="17">
         <v>20</v>
@@ -5556,20 +5158,20 @@
       <c r="D30" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="E30" s="98" t="s">
-        <v>257</v>
-      </c>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="99"/>
+      <c r="E30" s="92" t="s">
+        <v>256</v>
+      </c>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="93"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B31" s="17">
         <v>21</v>
@@ -5581,20 +5183,20 @@
       <c r="D31" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="E31" s="98" t="s">
-        <v>258</v>
-      </c>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="99"/>
+      <c r="E31" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="93"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B32" s="17">
         <v>22</v>
@@ -5606,20 +5208,20 @@
       <c r="D32" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="E32" s="98" t="s">
-        <v>259</v>
-      </c>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="99"/>
+      <c r="E32" s="92" t="s">
+        <v>258</v>
+      </c>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="93"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B33" s="17">
         <v>23</v>
@@ -5638,15 +5240,15 @@
       <c r="I33" s="48"/>
       <c r="J33" s="48"/>
       <c r="K33" s="48" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L33" s="50" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B34" s="17">
         <v>24</v>
@@ -5658,20 +5260,20 @@
       <c r="D34" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="E34" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="106"/>
+      <c r="E34" s="93" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B35" s="17">
         <v>25</v>
@@ -5691,7 +5293,7 @@
       <c r="J35" s="48"/>
       <c r="K35" s="48"/>
       <c r="L35" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -5709,21 +5311,21 @@
         <v>198</v>
       </c>
       <c r="E36" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="F36" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="F36" s="48" t="s">
+      <c r="G36" s="92" t="s">
         <v>230</v>
       </c>
-      <c r="G36" s="98" t="s">
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="H36" s="98"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="98" t="s">
-        <v>232</v>
-      </c>
-      <c r="K36" s="98"/>
-      <c r="L36" s="99"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="93"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="46" t="s">
@@ -5740,21 +5342,21 @@
         <v>198</v>
       </c>
       <c r="E37" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="F37" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="F37" s="48" t="s">
+      <c r="G37" s="92" t="s">
         <v>230</v>
       </c>
-      <c r="G37" s="98" t="s">
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="H37" s="98"/>
-      <c r="I37" s="98"/>
-      <c r="J37" s="98" t="s">
-        <v>232</v>
-      </c>
-      <c r="K37" s="98"/>
-      <c r="L37" s="99"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="93"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="46" t="s">
@@ -5771,21 +5373,21 @@
         <v>198</v>
       </c>
       <c r="E38" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="F38" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="F38" s="48" t="s">
+      <c r="G38" s="92" t="s">
         <v>230</v>
       </c>
-      <c r="G38" s="98" t="s">
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="H38" s="98"/>
-      <c r="I38" s="98"/>
-      <c r="J38" s="98" t="s">
-        <v>232</v>
-      </c>
-      <c r="K38" s="98"/>
-      <c r="L38" s="99"/>
+      <c r="K38" s="92"/>
+      <c r="L38" s="93"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="46" t="s">
@@ -5802,21 +5404,21 @@
         <v>198</v>
       </c>
       <c r="E39" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="F39" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="G39" s="92" t="s">
         <v>230</v>
       </c>
-      <c r="G39" s="98" t="s">
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="H39" s="98"/>
-      <c r="I39" s="98"/>
-      <c r="J39" s="98" t="s">
-        <v>232</v>
-      </c>
-      <c r="K39" s="98"/>
-      <c r="L39" s="99"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="93"/>
     </row>
     <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="51" t="s">
@@ -5833,35 +5435,75 @@
         <v>198</v>
       </c>
       <c r="E40" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="F40" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="F40" s="57" t="s">
+      <c r="G40" s="94" t="s">
         <v>230</v>
       </c>
-      <c r="G40" s="103" t="s">
+      <c r="H40" s="95"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="94" t="s">
         <v>231</v>
       </c>
-      <c r="H40" s="104"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="103" t="s">
-        <v>232</v>
-      </c>
-      <c r="K40" s="104"/>
-      <c r="L40" s="104"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
     </row>
     <row r="41" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="109"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="109"/>
+      <c r="K44" s="109"/>
+      <c r="L44" s="109"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="108"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="108"/>
+      <c r="L45" s="108"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="107"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="107"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="107"/>
+      <c r="K46" s="107"/>
+      <c r="L46" s="107"/>
+    </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="E22:L22"/>
-    <mergeCell ref="E23:L23"/>
-    <mergeCell ref="E25:L25"/>
-    <mergeCell ref="E29:L29"/>
-    <mergeCell ref="E30:L30"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:L8"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="E24:L24"/>
+    <mergeCell ref="E26:L26"/>
     <mergeCell ref="E31:L31"/>
     <mergeCell ref="E32:L32"/>
     <mergeCell ref="E28:L28"/>
@@ -5871,19 +5513,18 @@
     <mergeCell ref="G36:I36"/>
     <mergeCell ref="J36:L36"/>
     <mergeCell ref="G37:I37"/>
-    <mergeCell ref="E18:L18"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="E24:L24"/>
-    <mergeCell ref="E26:L26"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:L8"/>
+    <mergeCell ref="E22:L22"/>
+    <mergeCell ref="E23:L23"/>
+    <mergeCell ref="E25:L25"/>
+    <mergeCell ref="E29:L29"/>
+    <mergeCell ref="E30:L30"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -5907,415 +5548,424 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="74" t="s">
-        <v>285</v>
-      </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
+      <c r="A2" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
     </row>
     <row r="3" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="103" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="107" t="s">
-        <v>271</v>
-      </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="B5" s="109" t="s">
-        <v>272</v>
-      </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
+        <v>207</v>
+      </c>
+      <c r="B5" s="102" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="109" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
+        <v>206</v>
+      </c>
+      <c r="B6" s="102" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7" s="109" t="s">
-        <v>274</v>
-      </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
+        <v>205</v>
+      </c>
+      <c r="B7" s="102" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8" s="109" t="s">
-        <v>275</v>
-      </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
+        <v>204</v>
+      </c>
+      <c r="B8" s="102" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="59" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" s="109" t="s">
-        <v>276</v>
-      </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
+        <v>203</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="B10" s="109" t="s">
-        <v>277</v>
-      </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
+        <v>202</v>
+      </c>
+      <c r="B10" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="59" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" s="109" t="s">
-        <v>278</v>
-      </c>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
+        <v>201</v>
+      </c>
+      <c r="B11" s="102" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" s="109" t="s">
-        <v>279</v>
-      </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
+        <v>200</v>
+      </c>
+      <c r="B12" s="102" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="B13" s="109" t="s">
-        <v>280</v>
-      </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
+        <v>213</v>
+      </c>
+      <c r="B13" s="102" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" s="109" t="s">
-        <v>281</v>
-      </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
+        <v>212</v>
+      </c>
+      <c r="B14" s="102" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="B15" s="109" t="s">
-        <v>282</v>
-      </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
+        <v>211</v>
+      </c>
+      <c r="B15" s="102" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" s="109" t="s">
-        <v>283</v>
-      </c>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
+        <v>210</v>
+      </c>
+      <c r="B16" s="102" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="B17" s="109" t="s">
-        <v>284</v>
-      </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
+        <v>209</v>
+      </c>
+      <c r="B17" s="102" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="59"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="59"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="59"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="59"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="59"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="59"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="59"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="101"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="59"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="59"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="B25:L25"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="B20:L20"/>
     <mergeCell ref="B21:L21"/>
@@ -6330,17 +5980,8 @@
     <mergeCell ref="B12:L12"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="B25:L25"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -6355,573 +5996,579 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:M18"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:13" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="86" t="s">
         <v>287</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="86"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="86"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="75"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="75"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="75"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="73" t="s">
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="86" t="s">
         <v>289</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="75" t="s">
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="86"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="105"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="86" t="s">
+        <v>302</v>
+      </c>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="86"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="86"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="86"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="105"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="86" t="s">
         <v>290</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="75"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="112"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="75" t="s">
-        <v>325</v>
-      </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="75"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="75"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="75"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="75"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="112"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="112"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="75" t="s">
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="86"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="86"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="86"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="62" t="s">
         <v>291</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="75"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="75"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="75"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="75"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="75"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="73" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="86" t="s">
         <v>292</v>
       </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="75" t="s">
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="86"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="86"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="86" t="s">
         <v>293</v>
       </c>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="75"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="75"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="75" t="s">
-        <v>294</v>
-      </c>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="75"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="75"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="75"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
+      <c r="A35" s="86"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="75"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A5:M9"/>
     <mergeCell ref="A28:M30"/>
     <mergeCell ref="A31:M36"/>
     <mergeCell ref="A11:M12"/>
@@ -6930,432 +6577,8 @@
     <mergeCell ref="A19:M19"/>
     <mergeCell ref="A20:M26"/>
     <mergeCell ref="A27:M27"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A5:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53268519-D057-4417-AB5F-6962304ED800}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q32"/>
-  <sheetViews>
-    <sheetView topLeftCell="I14" workbookViewId="0">
-      <selection sqref="A1:Q36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="2.77734375" customWidth="1"/>
-    <col min="9" max="9" width="1.6640625" customWidth="1"/>
-    <col min="14" max="14" width="2.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="79" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="M6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="60"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="60"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="60"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="60"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D11" s="60"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="60"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60" t="s">
-        <v>304</v>
-      </c>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="60"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D13" s="60"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="60"/>
-    </row>
-    <row r="14" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="60"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="60"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="60"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="60"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="60"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D19" s="60"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="60"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="60"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D21" s="60"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="60"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D22" s="60"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="60"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="63" t="s">
-        <v>305</v>
-      </c>
-      <c r="N23" s="63"/>
-      <c r="O23" s="60"/>
-    </row>
-    <row r="24" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F25" s="125" t="s">
-        <v>310</v>
-      </c>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="126"/>
-      <c r="K25" s="127"/>
-    </row>
-    <row r="26" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F26" s="125" t="s">
-        <v>311</v>
-      </c>
-      <c r="G26" s="126"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="125" t="s">
-        <v>312</v>
-      </c>
-      <c r="J26" s="126"/>
-      <c r="K26" s="127"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F27" s="128" t="s">
-        <v>313</v>
-      </c>
-      <c r="G27" s="129"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="113" t="s">
-        <v>317</v>
-      </c>
-      <c r="J27" s="114"/>
-      <c r="K27" s="115"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D28" t="s">
-        <v>308</v>
-      </c>
-      <c r="F28" s="131" t="s">
-        <v>314</v>
-      </c>
-      <c r="G28" s="132"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="116" t="s">
-        <v>318</v>
-      </c>
-      <c r="J28" s="117"/>
-      <c r="K28" s="118"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F29" s="131" t="s">
-        <v>321</v>
-      </c>
-      <c r="G29" s="132"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="116" t="s">
-        <v>319</v>
-      </c>
-      <c r="J29" s="117"/>
-      <c r="K29" s="118"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>309</v>
-      </c>
-      <c r="F30" s="131" t="s">
-        <v>322</v>
-      </c>
-      <c r="G30" s="132"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="116" t="s">
-        <v>320</v>
-      </c>
-      <c r="J30" s="117"/>
-      <c r="K30" s="118"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F31" s="131" t="s">
-        <v>315</v>
-      </c>
-      <c r="G31" s="132"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="116" t="s">
-        <v>323</v>
-      </c>
-      <c r="J31" s="117"/>
-      <c r="K31" s="118"/>
-    </row>
-    <row r="32" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F32" s="119" t="s">
-        <v>316</v>
-      </c>
-      <c r="G32" s="120"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="122" t="s">
-        <v>324</v>
-      </c>
-      <c r="J32" s="123"/>
-      <c r="K32" s="124"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/hardware/boards/axis_portal_v2/docs/Documentation_AP2.xlsx
+++ b/hardware/boards/axis_portal_v2/docs/Documentation_AP2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\josep\goldi2\hardware\boards\axis_portal_v2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42C8DD7-5170-43D7-B2FD-B74FFE4E3D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F328EEA-D253-4791-A702-93FF6900F27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{28F95597-DC2D-43B8-80C7-4C3F5FC79DF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{28F95597-DC2D-43B8-80C7-4C3F5FC79DF3}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="6" r:id="rId1"/>
@@ -2523,7 +2523,7 @@
   </sheetPr>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:J14"/>
     </sheetView>
   </sheetViews>
@@ -6570,10 +6570,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M2"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6783,7 +6783,7 @@
       <c r="L13" s="126"/>
       <c r="M13" s="126"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="78" t="s">
         <v>313</v>
       </c>
@@ -6861,24 +6861,22 @@
       <c r="M18" s="78"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="126"/>
-      <c r="B19" s="126"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="126"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="78" t="s">
-        <v>314</v>
-      </c>
+      <c r="A20" s="78"/>
       <c r="B20" s="78"/>
       <c r="C20" s="78"/>
       <c r="D20" s="78"/>
@@ -6893,7 +6891,9 @@
       <c r="M20" s="78"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="78"/>
+      <c r="A21" s="78" t="s">
+        <v>314</v>
+      </c>
       <c r="B21" s="78"/>
       <c r="C21" s="78"/>
       <c r="D21" s="78"/>
@@ -6983,41 +6983,41 @@
       <c r="M26" s="78"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="78"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="77" t="s">
         <v>275</v>
       </c>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="78" t="s">
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="78" t="s">
         <v>276</v>
       </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="78"/>
       <c r="B29" s="78"/>
       <c r="C29" s="78"/>
       <c r="D29" s="78"/>
@@ -7047,9 +7047,7 @@
       <c r="M30" s="78"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="78" t="s">
-        <v>315</v>
-      </c>
+      <c r="A31" s="78"/>
       <c r="B31" s="78"/>
       <c r="C31" s="78"/>
       <c r="D31" s="78"/>
@@ -7064,7 +7062,9 @@
       <c r="M31" s="78"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="78"/>
+      <c r="A32" s="78" t="s">
+        <v>315</v>
+      </c>
       <c r="B32" s="78"/>
       <c r="C32" s="78"/>
       <c r="D32" s="78"/>
@@ -7138,16 +7138,30 @@
       <c r="L36" s="78"/>
       <c r="M36" s="78"/>
     </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="78"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A28:M30"/>
-    <mergeCell ref="A31:M36"/>
+  <mergeCells count="13">
+    <mergeCell ref="A29:M31"/>
+    <mergeCell ref="A32:M37"/>
     <mergeCell ref="A11:M12"/>
     <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A14:M18"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:M26"/>
-    <mergeCell ref="A27:M27"/>
+    <mergeCell ref="A21:M27"/>
+    <mergeCell ref="A28:M28"/>
+    <mergeCell ref="A14:M20"/>
     <mergeCell ref="A10:M10"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
